--- a/Assets/Data/Excels/Choose.xlsx
+++ b/Assets/Data/Excels/Choose.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\bishe\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E8DE9-3355-4E3B-B5F7-1AEFC5A8379F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6189AB5-6A15-4C47-9BAB-E3F2E6EE4236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Choose" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -166,9 +167,6 @@
     <t>搀扶他。漆黑之中除了你不会有人注意到他的跌倒，你不想听见被践踏的惨叫。</t>
   </si>
   <si>
-    <t>[2,5]</t>
-  </si>
-  <si>
     <t>bomb+runmany</t>
   </si>
   <si>
@@ -187,9 +185,6 @@
     <t>你立刻挤进房间并死死关上了门。餐车的备货不会太多，你必须保全自己。</t>
   </si>
   <si>
-    <t>[6]</t>
-  </si>
-  <si>
     <t>runmany</t>
   </si>
   <si>
@@ -212,6 +207,10 @@
   </si>
   <si>
     <t>不知何处传来缥缈的哭声将你唤醒。理智回炉，你意识到那是嘈杂的人声。哭泣，尖叫，还有泥土沉沉碾过金属的声音。你正处在一节倾斜的车厢之内，应急灯微弱的光芒之下看不到那些惶惑的脸。也许是地震中坍塌的隧道，也许是暴雨里倾颓的山体，你们被泥土埋葬，如同棺椁在六尺之下。奇迹般的，车厢还保持了相对的完整，给你们辗转腾挪的空间。惊恐的人群中有人大叫：我们得离开这儿！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,6]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +546,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,6 +555,8 @@
     <col min="3" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="167.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="147.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -650,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -772,10 +773,10 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
         <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,28 +784,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -812,25 +810,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
